--- a/data/trans_camb/IMC_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-10,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,98</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-9,59</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-10,62</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 30,75</t>
+          <t>-35,72; 43,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 27,28</t>
+          <t>-45,81; 35,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 6,32</t>
+          <t>-51,89; 28,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 1,84</t>
+          <t>-21,45; 15,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 14,71</t>
+          <t>-27,51; 10,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 9,45</t>
+          <t>-30,39; 10,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 23,79</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-29,06; 18,2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-36,57; 13,23</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>-17,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,53%</t>
+          <t>-5,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>-11,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>-12,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,78%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-15,42%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 58,55</t>
+          <t>-43,26; 94,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 52,4</t>
+          <t>-57,37; 68,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 8,65</t>
+          <t>-67,1; 49,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 2,38</t>
+          <t>-25,65; 24,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 23,59</t>
+          <t>-33,78; 15,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 14,28</t>
+          <t>-36,86; 15,82</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-26,87; 42,86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-38,59; 31,12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-48,56; 20,12</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 3,82</t>
+          <t>-13,45; 10,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 6,37</t>
+          <t>-10,64; 13,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 7,22</t>
+          <t>-14,44; 9,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 6,71</t>
+          <t>-10,58; 10,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 3,21</t>
+          <t>-11,29; 9,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 5,58</t>
+          <t>-9,74; 12,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 8,23</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 9,48</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,08; 8,01</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-1,22%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 6,75</t>
+          <t>-19,01; 18,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 11,08</t>
+          <t>-15,7; 24,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 15,79</t>
+          <t>-20,42; 17,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 15,07</t>
+          <t>-19,23; 22,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 6,08</t>
+          <t>-20,69; 22,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 10,64</t>
+          <t>-17,66; 27,45</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 15,22</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-12,8; 18,18</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,79; 14,75</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>8,96</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,78</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 13,02</t>
+          <t>-14,99; 12,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 14,36</t>
+          <t>-12,32; 12,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 9,51</t>
+          <t>-14,08; 13,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 10,95</t>
+          <t>-6,37; 14,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 7,6</t>
+          <t>-7,94; 13,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 9,73</t>
+          <t>-1,06; 21,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 10,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 10,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 13,59</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 24,6</t>
+          <t>-22,56; 24,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 27,51</t>
+          <t>-20,36; 26,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 33,93</t>
+          <t>-22,19; 25,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 38,35</t>
+          <t>-17,52; 56,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 18,78</t>
+          <t>-21,99; 52,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 23,97</t>
+          <t>-2,25; 89,25</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-13,75; 28,24</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 26,65</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; 34,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 7,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 3,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 10,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 13,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 10,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 9,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 6,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 8,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; 9,78</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 10,71</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 6,82</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 7,22</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 6,91</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 11,36</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 6,33</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 6,3</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 6,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-14,68; 17,29</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 19,03</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-23,02; 11,52</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; 16,71</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 16,45</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 26,74</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 12,58</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-10,9; 12,44</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 13,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
